--- a/medicine/Mort/Cimetière_du_choléra_de_Skanstull/Cimetière_du_choléra_de_Skanstull.xlsx
+++ b/medicine/Mort/Cimetière_du_choléra_de_Skanstull/Cimetière_du_choléra_de_Skanstull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Skanstull</t>
+          <t>Cimetière_du_choléra_de_Skanstull</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du choléra de Skanstull (suédois : Kolerakyrkogården, Skanstull était un cimetière du choléra près de Skanstull (sv) à Stockholm qui a été utilisé de 1809 à 1901. De nombreuses victimes des deux épidémies de choléra qui ont sévi à Stockholm en 1834 et 1853 ont été enterrées ici, d'où le nom. Kolerakyrkogården est aujourd'hui l'un des parcs de Stockholm, le long de Olaus Magnus väg (sv) et de la rue Hammarbybacken (sv), située à l'est de Gullmarsplan (en) à Johanneshov (en).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Skanstull</t>
+          <t>Cimetière_du_choléra_de_Skanstull</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
